--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/08</t>
+    <t xml:space="preserve">2022/09/09</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -303,10 +303,10 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
@@ -842,11 +842,11 @@
         <v>118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -854,10 +854,10 @@
       </c>
       <c r="H15" s="5" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.06809701492537</v>
+        <v>1.07276119402985</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
@@ -867,7 +867,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.06809701492537</v>
+        <v>1.07276119402985</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -886,7 +886,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>152</v>
@@ -943,7 +943,7 @@
         <v>0.769589552238806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J17" s="6" t="n">
         <v>136</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/09</t>
+    <t xml:space="preserve">2022/09/10</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -303,10 +303,10 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
@@ -839,14 +839,14 @@
         <v>20</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>112</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -854,10 +854,10 @@
       </c>
       <c r="H15" s="5" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.07276119402985</v>
+        <v>1.08208955223881</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
@@ -867,7 +867,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.07276119402985</v>
+        <v>1.08208955223881</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -886,7 +886,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>152</v>
@@ -943,20 +943,20 @@
         <v>0.769589552238806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="6" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
-        <v>473.04347826087</v>
+        <v>495.785536159601</v>
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -964,11 +964,11 @@
       </c>
       <c r="O17" s="5" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.495288663491502</v>
+        <v>0.519100181838865</v>
       </c>
       <c r="P17" s="5" t="n">
         <f aca="false">H17+O17</f>
-        <v>1.26487821573031</v>
+        <v>1.28868973407767</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVP index" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t xml:space="preserve">Past MVP players and their indexes</t>
   </si>
@@ -121,13 +121,16 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/10</t>
+    <t xml:space="preserve">2022/09/11</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
   </si>
   <si>
-    <t xml:space="preserve">The greater the Total of MVP index, the higher the performance of the player(The highest is 1.33 of Ohtani 2021).</t>
+    <t xml:space="preserve">*The greater the Total of MVP index, the higher the performance of the player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(The highest is 1.33 of Ohtani 2021)</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -139,19 +142,25 @@
     <t xml:space="preserve">Guerrero Jr.</t>
   </si>
   <si>
-    <t xml:space="preserve">In case of Ichiro, he has enormous defensive and running ability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In case of Guerrero, his record is great, but Ohtani's index is better than his.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBI and Run depend on the ability of his team batting, so the player of the winning team has certain advantages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 way player has such difficulty as to play at bat and at the same time at mound, so truly he shoud have a certain bonus point. Buti this time I don't give him one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This file is Public Domain. You can use it freely, but without ANY WARRANTY.</t>
+    <t xml:space="preserve">*In case of Ichiro, he has enormous defensive and running ability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*In case of Guerrero Jr., his record is great, but Ohtani's index is better than his.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*RBI and Run depend on the ability of his team batting,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so the player of the winning team has certain advantages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*2 way player has such difficulty as to play at bat and at the same time at mound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so truly he shoud have a certain bonus point. Buti this time I don't give him one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*This file is Public Domain. You can use it freely, but without ANY WARRANTY.</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +207,14 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -250,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,7 +292,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,28 +333,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="8.63"/>
@@ -818,7 +851,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1"/>
@@ -829,225 +862,190 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>2022</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>120</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>112</v>
+      <c r="D15" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>113</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>214.4</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.08208955223881</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>140</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>1.09141791044776</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>141</v>
+      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.08208955223881</v>
+        <v>1.09141791044776</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>2022</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6" t="n">
-        <v>139</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>152</v>
-      </c>
-      <c r="K16" s="6" t="n">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="6" t="n">
-        <v>1.84</v>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <f aca="false">D16+E16</f>
+        <v>168</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>214.4</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <f aca="false">F16/G16</f>
+        <v>0.783582089552239</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>140</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>141</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>2.55</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">J16/(K16+0.1)*J16</f>
-        <v>742.893890675241</v>
+        <v>495.785536159601</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.086423594239</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="9" t="n">
         <f aca="false">M16/N16</f>
-        <v>0.777828971622838</v>
-      </c>
-      <c r="P16" s="5" t="n">
+        <v>0.519100181838865</v>
+      </c>
+      <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>0.777828971622838</v>
+        <v>1.3026822713911</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>2022</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7" t="n">
+        <v>140</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>152</v>
+      </c>
+      <c r="K17" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <f aca="false">D17+E17</f>
-        <v>165</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <f aca="false">AVERAGE(F$4:F$8)</f>
-        <v>214.4</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">F17/G17</f>
-        <v>0.769589552238806</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>139</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>141</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>2.55</v>
+      <c r="L17" s="7" t="n">
+        <v>1.84</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
-        <v>495.785536159601</v>
+        <v>742.893890675241</v>
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
-        <v>955.086423594239</v>
+        <v>955.08642359424</v>
       </c>
       <c r="O17" s="5" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.519100181838865</v>
+        <v>0.777828971622837</v>
       </c>
       <c r="P17" s="5" t="n">
         <f aca="false">H17+O17</f>
-        <v>1.28868973407767</v>
+        <v>0.777828971622837</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
         <v>2001</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E24" s="7" t="n">
         <v>127</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <f aca="false">D23+E23</f>
-        <v>196</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <f aca="false">AVERAGE(F$4:F$8)</f>
-        <v>214.4</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">F23/G23</f>
-        <v>0.914179104477612</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>162</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>157</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5" t="n">
-        <f aca="false">H23+O23</f>
-        <v>0.914179104477612</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>111</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>123</v>
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">D24+E24</f>
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G24" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -1055,13 +1053,13 @@
       </c>
       <c r="H24" s="5" t="n">
         <f aca="false">F24/G24</f>
-        <v>1.09141791044776</v>
-      </c>
-      <c r="I24" s="6" t="n">
+        <v>0.914179104477612</v>
+      </c>
+      <c r="I24" s="7" t="n">
         <v>162</v>
       </c>
-      <c r="J24" s="6" t="n">
-        <v>161</v>
+      <c r="J24" s="7" t="n">
+        <v>157</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1070,12 +1068,51 @@
       <c r="O24" s="4"/>
       <c r="P24" s="5" t="n">
         <f aca="false">H24+O24</f>
+        <v>0.914179104477612</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>111</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>123</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">D25+E25</f>
+        <v>234</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>214.4</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <f aca="false">F25/G25</f>
         <v>1.09141791044776</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>39</v>
+      <c r="I25" s="7" t="n">
+        <v>162</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>161</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5" t="n">
+        <f aca="false">H25+O25</f>
+        <v>1.09141791044776</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1083,8 +1120,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1093,14 +1130,26 @@
         <v>42</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2070,13 +2119,16 @@
     <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/11</t>
+    <t xml:space="preserve">2022/09/12</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -336,10 +336,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -932,7 +932,7 @@
         <v>0.783582089552239</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>141</v>
@@ -976,7 +976,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>152</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/12</t>
+    <t xml:space="preserve">2022/09/13</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -336,10 +336,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -872,14 +872,14 @@
         <v>20</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -887,10 +887,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.09141791044776</v>
+        <v>1.11473880597015</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -900,7 +900,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.09141791044776</v>
+        <v>1.11473880597015</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -932,12 +932,14 @@
         <v>0.783582089552239</v>
       </c>
       <c r="I16" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">141+0</f>
         <v>141</v>
       </c>
-      <c r="J16" s="7" t="n">
-        <v>141</v>
-      </c>
       <c r="K16" s="7" t="n">
+        <f aca="false">40+0</f>
         <v>40</v>
       </c>
       <c r="L16" s="7" t="n">
@@ -976,7 +978,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>152</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/13</t>
+    <t xml:space="preserve">2022/09/14</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -167,10 +167,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -304,7 +305,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,7 +313,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,10 +337,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -875,11 +876,12 @@
         <v>123</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>116</v>
+        <f aca="false">116+1</f>
+        <v>117</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -887,10 +889,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.11473880597015</v>
+        <v>1.11940298507463</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -900,7 +902,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.11473880597015</v>
+        <v>1.11940298507463</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -932,7 +934,7 @@
         <v>0.783582089552239</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">141+0</f>
@@ -978,7 +980,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>152</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/14</t>
+    <t xml:space="preserve">2022/09/16</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -340,7 +340,7 @@
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -876,12 +876,12 @@
         <v>123</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">116+1</f>
-        <v>117</v>
+        <f aca="false">119</f>
+        <v>119</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -889,10 +889,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.11940298507463</v>
+        <v>1.12873134328358</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -902,7 +902,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.11940298507463</v>
+        <v>1.12873134328358</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -919,11 +919,11 @@
         <v>88</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -931,10 +931,10 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.783582089552239</v>
+        <v>0.788246268656716</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">141+0</f>
@@ -961,7 +961,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.3026822713911</v>
+        <v>1.30734645049558</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -980,20 +980,20 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
-        <v>742.893890675241</v>
+        <v>792.572347266881</v>
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -1001,11 +1001,11 @@
       </c>
       <c r="O17" s="5" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.777828971622837</v>
+        <v>0.829843590786501</v>
       </c>
       <c r="P17" s="5" t="n">
         <f aca="false">H17+O17</f>
-        <v>0.777828971622837</v>
+        <v>0.829843590786501</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -337,10 +337,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -892,7 +892,8 @@
         <v>1.12873134328358</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>144</v>
+        <f aca="false">144+1</f>
+        <v>145</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -916,14 +917,16 @@
         <v>32</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>88</v>
+        <f aca="false">88+1</f>
+        <v>89</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>81</v>
+        <f aca="false">81+1</f>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -931,25 +934,26 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.788246268656716</v>
+        <v>0.797574626865672</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>144</v>
+        <f aca="false">144+1</f>
+        <v>145</v>
       </c>
       <c r="J16" s="7" t="n">
-        <f aca="false">141+0</f>
-        <v>141</v>
+        <f aca="false">141+7</f>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="n">
         <f aca="false">40+0</f>
         <v>40</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">J16/(K16+0.1)*J16</f>
-        <v>495.785536159601</v>
+        <v>546.234413965087</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -957,11 +961,11 @@
       </c>
       <c r="O16" s="9" t="n">
         <f aca="false">M16/N16</f>
-        <v>0.519100181838865</v>
+        <v>0.571921451788064</v>
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.30734645049558</v>
+        <v>1.36949607865374</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -980,7 +984,8 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <v>145</v>
+        <f aca="false">145+1</f>
+        <v>146</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>157</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/16</t>
+    <t xml:space="preserve">2022/09/18</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -337,10 +337,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -873,15 +873,16 @@
         <v>20</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>123</v>
+        <f aca="false">123+4</f>
+        <v>127</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">119</f>
-        <v>119</v>
+        <f aca="false">119+3</f>
+        <v>122</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -889,11 +890,11 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.12873134328358</v>
+        <v>1.16138059701493</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">144+1</f>
-        <v>145</v>
+        <f aca="false">145+1</f>
+        <v>146</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -903,7 +904,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.12873134328358</v>
+        <v>1.16138059701493</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -937,8 +938,8 @@
         <v>0.797574626865672</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">144+1</f>
-        <v>145</v>
+        <f aca="false">145+1</f>
+        <v>146</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">141+7</f>
@@ -984,8 +985,8 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <f aca="false">145+1</f>
-        <v>146</v>
+        <f aca="false">146+1</f>
+        <v>147</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>157</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/18</t>
+    <t xml:space="preserve">2022/09/19</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -337,10 +337,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -922,12 +922,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">81+1</f>
-        <v>82</v>
+        <f aca="false">82+1</f>
+        <v>83</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -935,11 +935,11 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.797574626865672</v>
+        <v>0.802238805970149</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">145+1</f>
-        <v>146</v>
+        <f aca="false">146+1</f>
+        <v>147</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">141+7</f>
@@ -966,7 +966,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.36949607865374</v>
+        <v>1.37416025775821</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -985,8 +985,8 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <f aca="false">146+1</f>
-        <v>147</v>
+        <f aca="false">148</f>
+        <v>148</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>157</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P/DH</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/19</t>
+    <t xml:space="preserve">2022/09/20</t>
   </si>
   <si>
     <t xml:space="preserve">Judge</t>
@@ -337,10 +337,10 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -873,16 +873,16 @@
         <v>20</v>
       </c>
       <c r="D15" s="7" t="n">
-        <f aca="false">123+4</f>
-        <v>127</v>
+        <f aca="false">128</f>
+        <v>128</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">119+3</f>
-        <v>122</v>
+        <f aca="false">123</f>
+        <v>123</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -890,11 +890,11 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>1.16138059701493</v>
+        <v>1.17070895522388</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">145+1</f>
-        <v>146</v>
+        <f aca="false">146+1</f>
+        <v>147</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -904,7 +904,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>1.16138059701493</v>
+        <v>1.17070895522388</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -922,12 +922,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">82+1</f>
-        <v>83</v>
+        <f aca="false">84</f>
+        <v>84</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -935,11 +935,11 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.802238805970149</v>
+        <v>0.806902985074627</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">146+1</f>
-        <v>147</v>
+        <f aca="false">148</f>
+        <v>148</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">141+7</f>
@@ -966,7 +966,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.37416025775821</v>
+        <v>1.37882443686269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -985,8 +985,8 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7" t="n">
-        <f aca="false">148</f>
-        <v>148</v>
+        <f aca="false">149</f>
+        <v>149</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>157</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MVP index" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVP index Ver.2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t xml:space="preserve">Past MVP players and their indexes</t>
   </si>
@@ -161,6 +162,48 @@
   </si>
   <si>
     <t xml:space="preserve">*This file is Public Domain. You can use it freely, but without ANY WARRANTY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best 5 batters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best 3 pitchers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffey Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/09/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Since we want to treat pitchers and batters equally, we take the best of both, the last 35 years of data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only three pitchers have been honored since 1986, so batter’s true index should be lower.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*i.e. Larger than 0.6 is already MVP level.</t>
   </si>
 </sst>
 </file>
@@ -268,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,6 +360,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,19 +387,19 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.75"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.25"/>
@@ -1003,7 +1054,7 @@
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
-        <v>955.08642359424</v>
+        <v>955.086423594239</v>
       </c>
       <c r="O17" s="5" t="n">
         <f aca="false">M17/N17</f>
@@ -2141,4 +2192,1727 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z946"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="8.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">D4+E4</f>
+        <v>299</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">F4/G4</f>
+        <v>1.0655737704918</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="n">
+        <f aca="false">H4+O4</f>
+        <v>1.0655737704918</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <f aca="false">D5+E5</f>
+        <v>267</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">F5/G5</f>
+        <v>0.951532430506058</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="n">
+        <f aca="false">H5+O5</f>
+        <v>0.951532430506058</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">D6+E6</f>
+        <v>292</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">F6/G6</f>
+        <v>1.04062722736992</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="n">
+        <f aca="false">H6+O6</f>
+        <v>1.04062722736992</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <f aca="false">D7+E7</f>
+        <v>272</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">F7/G7</f>
+        <v>0.969351389878831</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="n">
+        <f aca="false">H7+O7</f>
+        <v>0.969351389878831</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <f aca="false">D8+E8</f>
+        <v>273</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">F8/G8</f>
+        <v>0.972915181753386</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="n">
+        <f aca="false">H8+O8</f>
+        <v>0.972915181753386</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>198.33</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <f aca="false">J9/(K9+0.1)*J9</f>
+        <v>1006.00483120205</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <f aca="false">M9/N9</f>
+        <v>1.05331287970379</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <f aca="false">H9+O9</f>
+        <v>1.05331287970379</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>251</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <f aca="false">J10/(K10+0.1)*J10</f>
+        <v>938.912071535022</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <f aca="false">M10/N10</f>
+        <v>0.983065038241933</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <f aca="false">H10+O10</f>
+        <v>0.983065038241933</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">J11/(K11+0.1)*J11</f>
+        <v>920.342368045649</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <f aca="false">M11/N11</f>
+        <v>0.963622082054272</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <f aca="false">H11+O11</f>
+        <v>0.963622082054272</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">D12+E12</f>
+        <v>203</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">F12/G12</f>
+        <v>0.723449750534569</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>130.33</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">J12/(K12+0.1)*J12</f>
+        <v>368.457893709328</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <f aca="false">M12/N12</f>
+        <v>0.385784872035689</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <f aca="false">H12+O12</f>
+        <v>1.10923462257026</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">128</f>
+        <v>128</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">125</f>
+        <v>125</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">D15+E15</f>
+        <v>253</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <f aca="false">F15/G15</f>
+        <v>0.901639344262295</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">148</f>
+        <v>148</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="9" t="n">
+        <f aca="false">H15+O15</f>
+        <v>0.901639344262295</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">88+1</f>
+        <v>89</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">85</f>
+        <v>85</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <f aca="false">D16+E16</f>
+        <v>174</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <f aca="false">F16/G16</f>
+        <v>0.620099786172487</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">149</f>
+        <v>149</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">141+7</f>
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">40+0</f>
+        <v>40</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <f aca="false">J16/(K16+0.1)*J16</f>
+        <v>546.234413965087</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <f aca="false">M16/N16</f>
+        <v>0.571921451788064</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <f aca="false">H16+O16</f>
+        <v>1.19202123796055</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7" t="n">
+        <f aca="false">150</f>
+        <v>150</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <f aca="false">J17/(K17+0.1)*J17</f>
+        <v>792.572347266881</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <f aca="false">M17/N17</f>
+        <v>0.829843590786501</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <f aca="false">H17+O17</f>
+        <v>0.829843590786501</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <f aca="false">D33+E33</f>
+        <v>185</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <f aca="false">F33/G33</f>
+        <v>0.659301496792587</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5" t="n">
+        <f aca="false">H33+O33</f>
+        <v>0.659301496792587</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t xml:space="preserve">Past MVP players and their indexes</t>
   </si>
@@ -191,7 +191,10 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/21</t>
+    <t xml:space="preserve">2022/09/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cease</t>
   </si>
   <si>
     <t xml:space="preserve">*Since we want to treat pitchers and batters equally, we take the best of both, the last 35 years of data.</t>
@@ -391,7 +394,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2199,13 +2202,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z946"/>
+  <dimension ref="A1:Z947"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2219,8 +2222,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="8.63"/>
@@ -2760,8 +2763,8 @@
         <v>0.901639344262295</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">148</f>
-        <v>148</v>
+        <f aca="false">149</f>
+        <v>149</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2805,8 +2808,8 @@
         <v>0.620099786172487</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">149</f>
-        <v>149</v>
+        <f aca="false">150</f>
+        <v>150</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">141+7</f>
@@ -2841,162 +2844,207 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <f aca="false">150</f>
         <v>150</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
-        <v>792.572347266881</v>
+        <v>728.199513381995</v>
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
-        <v>955.086423594239</v>
+        <v>955.08642359424</v>
       </c>
       <c r="O17" s="5" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.829843590786501</v>
+        <v>0.762443581431709</v>
       </c>
       <c r="P17" s="5" t="n">
         <f aca="false">H17+O17</f>
-        <v>0.829843590786501</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+        <v>0.762443581431709</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7" t="n">
+        <f aca="false">151</f>
+        <v>151</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <f aca="false">157+6</f>
+        <v>163</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <f aca="false">31+2</f>
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <f aca="false">J18/(K18+0.1)*J18</f>
+        <v>802.688821752266</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <f aca="false">AVERAGE(M$9:M$11)</f>
+        <v>955.086423594239</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <f aca="false">M18/N18</f>
+        <v>0.84043579923536</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <f aca="false">H18+O18</f>
+        <v>0.84043579923536</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>42</v>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-    </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D34" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E34" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="F33" s="4" t="n">
-        <f aca="false">D33+E33</f>
+      <c r="F34" s="4" t="n">
+        <f aca="false">D34+E34</f>
         <v>185</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G34" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <f aca="false">F33/G33</f>
+      <c r="H34" s="5" t="n">
+        <f aca="false">F34/G34</f>
         <v>0.659301496792587</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I34" s="4" t="n">
         <v>162</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5" t="n">
-        <f aca="false">H33+O33</f>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="n">
+        <f aca="false">H34+O34</f>
         <v>0.659301496792587</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12"/>
-    </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="13"/>
+    </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3906,6 +3954,7 @@
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511805555555555"/>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t xml:space="preserve">Past MVP players and their indexes</t>
   </si>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/22</t>
+    <t xml:space="preserve">2022/09/23</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">Referrence</t>
   </si>
   <si>
-    <t xml:space="preserve">*i.e. Larger than 0.6 is already MVP level.</t>
+    <t xml:space="preserve">*i.e. Larger than 0.6 is already MVP level(batter).</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,6 +363,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2202,13 +2206,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z947"/>
+  <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2763,8 +2767,8 @@
         <v>0.901639344262295</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">149</f>
-        <v>149</v>
+        <f aca="false">150</f>
+        <v>150</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2788,8 +2792,8 @@
         <v>32</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">88+1</f>
-        <v>89</v>
+        <f aca="false">89+1</f>
+        <v>90</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">85</f>
@@ -2797,7 +2801,7 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2805,26 +2809,26 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.620099786172487</v>
+        <v>0.623663578047042</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">150</f>
-        <v>150</v>
+        <f aca="false">151</f>
+        <v>151</v>
       </c>
       <c r="J16" s="7" t="n">
-        <f aca="false">141+7</f>
-        <v>148</v>
+        <f aca="false">148+5</f>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="n">
-        <f aca="false">40+0</f>
-        <v>40</v>
+        <f aca="false">40+2</f>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">J16/(K16+0.1)*J16</f>
-        <v>546.234413965087</v>
+        <v>556.03325415677</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2832,11 +2836,11 @@
       </c>
       <c r="O16" s="9" t="n">
         <f aca="false">M16/N16</f>
-        <v>0.571921451788064</v>
+        <v>0.582181088978599</v>
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.19202123796055</v>
+        <v>1.20584466702564</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2855,7 +2859,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>173</v>
@@ -2874,11 +2878,11 @@
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.08642359424</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="12" t="n">
         <f aca="false">M17/N17</f>
         <v>0.762443581431709</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="12" t="n">
         <f aca="false">H17+O17</f>
         <v>0.762443581431709</v>
       </c>
@@ -2899,8 +2903,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <f aca="false">151</f>
-        <v>151</v>
+        <f aca="false">152</f>
+        <v>152</v>
       </c>
       <c r="J18" s="7" t="n">
         <f aca="false">157+6</f>
@@ -2921,11 +2925,11 @@
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.086423594239</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="12" t="n">
         <f aca="false">M18/N18</f>
         <v>0.84043579923536</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="12" t="n">
         <f aca="false">H18+O18</f>
         <v>0.84043579923536</v>
       </c>
@@ -3035,17 +3039,58 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12"/>
+      <c r="A35" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <f aca="false">D35+E35</f>
+        <v>214</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <f aca="false">AVERAGE(F$4:F$8)</f>
+        <v>280.6</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <f aca="false">F35/G35</f>
+        <v>0.762651461154668</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5" t="n">
+        <f aca="false">H35+O35</f>
+        <v>0.762651461154668</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="14"/>
+    </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3955,6 +4000,7 @@
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511805555555555"/>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/23</t>
+    <t xml:space="preserve">2022/09/24</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2767,8 +2767,8 @@
         <v>0.901639344262295</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">150</f>
-        <v>150</v>
+        <f aca="false">151+0</f>
+        <v>151</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2792,16 +2792,16 @@
         <v>32</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">89+1</f>
-        <v>90</v>
+        <f aca="false">92+0</f>
+        <v>92</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">85</f>
+        <f aca="false">85+0</f>
         <v>85</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2809,11 +2809,11 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.623663578047042</v>
+        <v>0.630791161796151</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">151</f>
-        <v>151</v>
+        <f aca="false">152+0</f>
+        <v>152</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">148+5</f>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.20584466702564</v>
+        <v>1.21297225077475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2859,16 +2859,18 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>151</v>
+        <f aca="false">152+0</f>
+        <v>152</v>
       </c>
       <c r="J17" s="7" t="n">
+        <f aca="false">173+0</f>
         <v>173</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>41</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
@@ -2903,8 +2905,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <f aca="false">152</f>
-        <v>152</v>
+        <f aca="false">153+0</f>
+        <v>153</v>
       </c>
       <c r="J18" s="7" t="n">
         <f aca="false">157+6</f>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/24</t>
+    <t xml:space="preserve">2022/09/25</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2212,7 +2212,7 @@
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2767,8 +2767,8 @@
         <v>0.901639344262295</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">151+0</f>
-        <v>151</v>
+        <f aca="false">151+1</f>
+        <v>152</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2792,16 +2792,16 @@
         <v>32</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">92+0</f>
-        <v>92</v>
+        <f aca="false">92+1</f>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">85+0</f>
-        <v>85</v>
+        <f aca="false">85+2</f>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2809,11 +2809,11 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.630791161796151</v>
+        <v>0.641482537419815</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">152+0</f>
-        <v>152</v>
+        <f aca="false">152+1</f>
+        <v>153</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">148+5</f>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.21297225077475</v>
+        <v>1.22366362639841</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2859,12 +2859,12 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <f aca="false">152+0</f>
-        <v>152</v>
+        <f aca="false">152+1</f>
+        <v>153</v>
       </c>
       <c r="J17" s="7" t="n">
-        <f aca="false">173+0</f>
-        <v>173</v>
+        <f aca="false">173+6</f>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>41</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
-        <v>728.199513381995</v>
+        <v>779.586374695864</v>
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2882,11 +2882,11 @@
       </c>
       <c r="O17" s="12" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.762443581431709</v>
+        <v>0.816246944189696</v>
       </c>
       <c r="P17" s="12" t="n">
         <f aca="false">H17+O17</f>
-        <v>0.762443581431709</v>
+        <v>0.816246944189696</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2905,8 +2905,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <f aca="false">153+0</f>
-        <v>153</v>
+        <f aca="false">153+1</f>
+        <v>154</v>
       </c>
       <c r="J18" s="7" t="n">
         <f aca="false">157+6</f>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/25</t>
+    <t xml:space="preserve">2022/09/26</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2192,8 +2192,8 @@
     <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2751,12 +2751,12 @@
         <v>128</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">125</f>
-        <v>125</v>
+        <f aca="false">126</f>
+        <v>126</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2764,11 +2764,11 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>0.901639344262295</v>
+        <v>0.90520313613685</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">151+1</f>
-        <v>152</v>
+        <f aca="false">153</f>
+        <v>153</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2778,7 +2778,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>0.901639344262295</v>
+        <v>0.90520313613685</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4005,8 +4005,8 @@
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.629861111111111" right="0.629861111111111" top="0.335416666666667" bottom="0" header="0" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter/>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/26</t>
+    <t xml:space="preserve">2022/09/27</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2751,12 +2751,11 @@
         <v>128</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">126</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2764,11 +2763,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>0.90520313613685</v>
+        <v>0.912330719885959</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">153</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2778,7 +2776,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>0.90520313613685</v>
+        <v>0.912330719885959</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2812,8 +2810,7 @@
         <v>0.641482537419815</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">152+1</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">148+5</f>
@@ -2859,8 +2856,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <f aca="false">152+1</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">173+6</f>
@@ -2905,8 +2901,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <f aca="false">153+1</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J18" s="7" t="n">
         <f aca="false">157+6</f>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/27</t>
+    <t xml:space="preserve">2022/09/28</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2747,15 +2747,14 @@
         <v>20</v>
       </c>
       <c r="D15" s="7" t="n">
-        <f aca="false">128</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2763,10 +2762,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>0.912330719885959</v>
+        <v>0.926585887384177</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2776,7 +2775,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>0.912330719885959</v>
+        <v>0.926585887384177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2794,12 +2793,11 @@
         <v>93</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">85+2</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2807,10 +2805,10 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.641482537419815</v>
+        <v>0.645046329294369</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">148+5</f>
@@ -2837,7 +2835,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.22366362639841</v>
+        <v>1.22722741827297</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,7 +2854,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">173+6</f>
@@ -2901,22 +2899,20 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J18" s="7" t="n">
-        <f aca="false">157+6</f>
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="n">
-        <f aca="false">31+2</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="M18" s="5" t="n">
         <f aca="false">J18/(K18+0.1)*J18</f>
-        <v>802.688821752266</v>
+        <v>847.507331378299</v>
       </c>
       <c r="N18" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2924,11 +2920,11 @@
       </c>
       <c r="O18" s="12" t="n">
         <f aca="false">M18/N18</f>
-        <v>0.84043579923536</v>
+        <v>0.887361929184281</v>
       </c>
       <c r="P18" s="12" t="n">
         <f aca="false">H18+O18</f>
-        <v>0.84043579923536</v>
+        <v>0.887361929184281</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/28</t>
+    <t xml:space="preserve">2022/09/29</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
@@ -2789,15 +2789,15 @@
         <v>32</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">92+1</f>
-        <v>93</v>
+        <f aca="false">92+2</f>
+        <v>94</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>88</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2805,25 +2805,24 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.645046329294369</v>
+        <v>0.648610121168924</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J16" s="7" t="n">
-        <f aca="false">148+5</f>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="n">
         <f aca="false">40+2</f>
         <v>42</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">J16/(K16+0.1)*J16</f>
-        <v>556.03325415677</v>
+        <v>615.700712589074</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2831,11 +2830,11 @@
       </c>
       <c r="O16" s="9" t="n">
         <f aca="false">M16/N16</f>
-        <v>0.582181088978599</v>
+        <v>0.644654449460219</v>
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.22722741827297</v>
+        <v>1.29326457062914</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2854,7 +2853,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">173+6</f>
@@ -2899,7 +2898,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>170</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/29</t>
+    <t xml:space="preserve">2022/09/30</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,26 +2209,26 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="8.63"/>
   </cols>
@@ -2765,7 +2765,7 @@
         <v>0.926585887384177</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2808,7 +2808,7 @@
         <v>0.648610121168924</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>161</v>
@@ -2853,7 +2853,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">173+6</f>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/09/30</t>
+    <t xml:space="preserve">2022/10/01</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
@@ -2750,11 +2750,11 @@
         <v>130</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2762,10 +2762,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>0.926585887384177</v>
+        <v>0.930149679258731</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2775,7 +2775,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>0.926585887384177</v>
+        <v>0.930149679258731</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2808,7 +2808,7 @@
         <v>0.648610121168924</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>161</v>
@@ -2853,21 +2853,20 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J17" s="7" t="n">
-        <f aca="false">173+6</f>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>2.06</v>
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">J17/(K17+0.1)*J17</f>
-        <v>779.586374695864</v>
+        <v>750.687361419069</v>
       </c>
       <c r="N17" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2875,11 +2874,11 @@
       </c>
       <c r="O17" s="12" t="n">
         <f aca="false">M17/N17</f>
-        <v>0.816246944189696</v>
+        <v>0.785988935529034</v>
       </c>
       <c r="P17" s="12" t="n">
         <f aca="false">H17+O17</f>
-        <v>0.816246944189696</v>
+        <v>0.785988935529034</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2898,7 +2897,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>170</v>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/10/01</t>
+    <t xml:space="preserve">2022/10/04</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
@@ -2747,14 +2747,14 @@
         <v>20</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">D15+E15</f>
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2762,10 +2762,10 @@
       </c>
       <c r="H15" s="9" t="n">
         <f aca="false">F15/G15</f>
-        <v>0.930149679258731</v>
+        <v>0.940841054882395</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2775,7 +2775,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="n">
         <f aca="false">H15+O15</f>
-        <v>0.930149679258731</v>
+        <v>0.940841054882395</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2789,15 +2789,14 @@
         <v>32</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">92+2</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">D16+E16</f>
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">AVERAGE(F$4:F$8)</f>
@@ -2805,10 +2804,10 @@
       </c>
       <c r="H16" s="9" t="n">
         <f aca="false">F16/G16</f>
-        <v>0.648610121168924</v>
+        <v>0.659301496792587</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>161</v>
@@ -2834,7 +2833,7 @@
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.29326457062914</v>
+        <v>1.30395594625281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2853,7 +2852,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>184</v>
@@ -2897,20 +2896,20 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="n">
         <v>34</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M18" s="5" t="n">
         <f aca="false">J18/(K18+0.1)*J18</f>
-        <v>847.507331378299</v>
+        <v>898.093841642229</v>
       </c>
       <c r="N18" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2918,11 +2917,11 @@
       </c>
       <c r="O18" s="12" t="n">
         <f aca="false">M18/N18</f>
-        <v>0.887361929184281</v>
+        <v>0.940327303850125</v>
       </c>
       <c r="P18" s="12" t="n">
         <f aca="false">H18+O18</f>
-        <v>0.887361929184281</v>
+        <v>0.940327303850125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
@@ -2341,7 +2341,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="12" t="n">
         <f aca="false">F4/G4</f>
         <v>1.0655737704918</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="12" t="n">
         <f aca="false">H4+O4</f>
         <v>1.0655737704918</v>
       </c>
@@ -2383,7 +2383,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="12" t="n">
         <f aca="false">F5/G5</f>
         <v>0.951532430506058</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="12" t="n">
         <f aca="false">H5+O5</f>
         <v>0.951532430506058</v>
       </c>
@@ -2425,7 +2425,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="12" t="n">
         <f aca="false">F6/G6</f>
         <v>1.04062722736992</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="12" t="n">
         <f aca="false">H6+O6</f>
         <v>1.04062722736992</v>
       </c>
@@ -2467,7 +2467,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="12" t="n">
         <f aca="false">F7/G7</f>
         <v>0.969351389878831</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="12" t="n">
         <f aca="false">H7+O7</f>
         <v>0.969351389878831</v>
       </c>
@@ -2509,7 +2509,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="12" t="n">
         <f aca="false">F8/G8</f>
         <v>0.972915181753386</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="12" t="n">
         <f aca="false">H8+O8</f>
         <v>0.972915181753386</v>
       </c>
@@ -2562,11 +2562,11 @@
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.086423594239</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="12" t="n">
         <f aca="false">M9/N9</f>
         <v>1.05331287970379</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="12" t="n">
         <f aca="false">H9+O9</f>
         <v>1.05331287970379</v>
       </c>
@@ -2606,11 +2606,11 @@
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.086423594239</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="12" t="n">
         <f aca="false">M10/N10</f>
         <v>0.983065038241933</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="12" t="n">
         <f aca="false">H10+O10</f>
         <v>0.983065038241933</v>
       </c>
@@ -2650,11 +2650,11 @@
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.086423594239</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="12" t="n">
         <f aca="false">M11/N11</f>
         <v>0.963622082054272</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="12" t="n">
         <f aca="false">H11+O11</f>
         <v>0.963622082054272</v>
       </c>
@@ -2683,7 +2683,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="12" t="n">
         <f aca="false">F12/G12</f>
         <v>0.723449750534569</v>
       </c>
@@ -2707,11 +2707,11 @@
         <f aca="false">AVERAGE(M$9:M$11)</f>
         <v>955.086423594239</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="12" t="n">
         <f aca="false">M12/N12</f>
         <v>0.385784872035689</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="12" t="n">
         <f aca="false">H12+O12</f>
         <v>1.10923462257026</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0.940841054882395</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -2807,21 +2807,21 @@
         <v>0.659301496792587</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="n">
-        <f aca="false">40+2</f>
-        <v>42</v>
+        <f aca="false">43</f>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">J16/(K16+0.1)*J16</f>
-        <v>615.700712589074</v>
+        <v>639.350348027842</v>
       </c>
       <c r="N16" s="5" t="n">
         <f aca="false">AVERAGE(M$9:M$11)</f>
@@ -2829,11 +2829,11 @@
       </c>
       <c r="O16" s="9" t="n">
         <f aca="false">M16/N16</f>
-        <v>0.644654449460219</v>
+        <v>0.669416224787072</v>
       </c>
       <c r="P16" s="9" t="n">
         <f aca="false">H16+O16</f>
-        <v>1.30395594625281</v>
+        <v>1.32871772157966</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,7 +2852,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>184</v>
@@ -2896,7 +2896,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>175</v>
@@ -3010,7 +3010,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H34" s="12" t="n">
         <f aca="false">F34/G34</f>
         <v>0.659301496792587</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5" t="n">
+      <c r="P34" s="12" t="n">
         <f aca="false">H34+O34</f>
         <v>0.659301496792587</v>
       </c>
@@ -3052,7 +3052,7 @@
         <f aca="false">AVERAGE(F$4:F$8)</f>
         <v>280.6</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="12" t="n">
         <f aca="false">F35/G35</f>
         <v>0.762651461154668</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="5" t="n">
+      <c r="P35" s="12" t="n">
         <f aca="false">H35+O35</f>
         <v>0.762651461154668</v>
       </c>

--- a/MVPIndex.xlsx
+++ b/MVPIndex.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/10/04</t>
+    <t xml:space="preserve">2022/10/05</t>
   </si>
   <si>
     <t xml:space="preserve">Cease</t>
@@ -398,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
@@ -2209,10 +2209,10 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
